--- a/data/GLEAM.xlsx
+++ b/data/GLEAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\DICEFARM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{126F6C08-9736-4D6F-86ED-657C8DD40A3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3250A5-E21D-4DFC-B0B4-D69134AAEFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="1416" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14280" yWindow="2892" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Explanatory notes" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GLEAM_GRL!$A$2:$D$585</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4357,7 +4357,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>871980218.51894546</v>
+        <v>641161925.38157749</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>1.0908748194335349</v>
+        <v>0.80211383781877565</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>1687070232.2332685</v>
+        <v>1240492817.8185797</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>4.3900367126662596</v>
+        <v>3.2279681710781318</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>584176516.9333241</v>
+        <v>429541556.56862062</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>2.9201201656743661</v>
+        <v>2.1471471806429161</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>14004.822736448761</v>
+        <v>10297.66377680056</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>7.0063096047827447</v>
+        <v>5.1516982388108419</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -4745,7 +4745,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>20480224.260405682</v>
+        <v>15058988.426768884</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>3.2084916012581099</v>
+        <v>2.359185000925081</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>161907898.67603114</v>
+        <v>119049925.49708171</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>2.0056543633344877</v>
+        <v>1.4747458553930055</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>1115447.9350036939</v>
+        <v>820182.30514977488</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>4.6418563929020717E-2</v>
+        <v>3.413129700663288E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>2630095.5948448293</v>
+        <v>1933893.8197388451</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>2.2397667741124679E-2</v>
+        <v>1.6468873339062266E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>1687070232.2332685</v>
+        <v>1240492817.8185797</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>4.3900367126662596</v>
+        <v>3.2279681710781318</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>871994223.34168196</v>
+        <v>641172223.04535437</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.0908896119533842</v>
+        <v>0.80212471467160595</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>604656741.19372976</v>
+        <v>444600544.99538946</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>2.9290368208651563</v>
+        <v>2.1537035447537911</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -5061,7 +5061,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5134,7 +5134,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>1047207364.0699309</v>
+        <v>770005414.75730217</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>1.2225346145011224</v>
+        <v>0.89892251066258999</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>521164303.61700577</v>
+        <v>383209046.77721012</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>2.07786372628521</v>
+        <v>1.5278409752097133</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>696866.95631602092</v>
+        <v>512402.17376178008</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>7.0407731873968791</v>
+        <v>5.1770391083800584</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>170880.054948256</v>
+        <v>125647.09922665883</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>2.8208235313160395</v>
+        <v>2.074134949497088</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>105794724.91221195</v>
+        <v>77790238.906038195</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>4.5709446607363402</v>
+        <v>3.3609887211296616</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>12471163.702092521</v>
+        <v>9169973.3103621472</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>1.4657925940789649</v>
+        <v>1.0777886721168859</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>4723140.3132162876</v>
+        <v>3472897.2891296237</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1.3186549712914915</v>
+        <v>0.96959924359668492</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>86039830.453321919</v>
+        <v>63264581.21567788</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.27748791313974441</v>
+        <v>0.20403523024981207</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>5598282.5887669511</v>
+        <v>4116384.256446288</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>2.3455961824341481E-2</v>
+        <v>1.7247030753192266E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>6293943.7716679024</v>
+        <v>4627899.8321087519</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>1.9288100049796253E-2</v>
+        <v>1.4182426507203126E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>521861170.57332176</v>
+        <v>383721448.9509719</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>2.0798213847444287</v>
+        <v>1.5292804299591389</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1059849407.8269718</v>
+        <v>779301035.16689098</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.2250387801005893</v>
+        <v>0.90076380889749208</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>110517865.22542824</v>
+        <v>81263136.195167825</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>4.1350902922601378</v>
+        <v>3.0405075678383366</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -5765,7 +5765,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>8967653538.3360004</v>
+        <v>6593862895.8352938</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>3.4160511275227763</v>
+        <v>2.5118022996491001</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>9759322525.155201</v>
+        <v>7175972444.9670591</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>14.207223850968555</v>
+        <v>10.446488125712172</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>9934792057.2056007</v>
+        <v>7304994159.71</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>3.2085822882754091</v>
+        <v>2.3592516825554477</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>4302162159.2476406</v>
+        <v>3163354528.8585596</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>10.220677511756127</v>
+        <v>7.5152040527618595</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>216428129.87557602</v>
+        <v>159138330.79086471</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>5.2225146727019096</v>
+        <v>3.8400843181631688</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>879097472.57256174</v>
+        <v>646395200.42100132</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>8.3202654996968164</v>
+        <v>6.1178422791888361</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>882471160.90586317</v>
+        <v>648875853.60725236</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>3.1407804347551109</v>
+        <v>2.309397378496405</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1173528340.3930149</v>
+        <v>862888485.58309913</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>6.1709723225460822</v>
+        <v>4.5374796489309421</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>187756654.99174529</v>
+        <v>138056363.96451861</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>1.5240000978490329</v>
+        <v>1.120588307241936</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>57279638.272830315</v>
+        <v>42117381.082963467</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>6.6691844961808133E-2</v>
+        <v>4.9038121295447157E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>32315315.841927625</v>
+        <v>23761261.648476195</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>2.4803947097603488E-2</v>
+        <v>1.8238196395296682E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>14061484684.402842</v>
+        <v>10339326973.825619</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>12.692542260005071</v>
+        <v>9.3327516617684338</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>20001344886.323044</v>
+        <v>14706871239.943413</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -6390,7 +6390,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>3.3093530786493437</v>
+        <v>2.4333478519480467</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2052625812.9655769</v>
+        <v>1509283686.0041006</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>6.9386138068094345</v>
+        <v>5.1019219167716434</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -6469,7 +6469,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>3461295190.7600002</v>
+        <v>2545069993.2058825</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>5.5340155212037345</v>
+        <v>4.0691290597086285</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>5163564604.828476</v>
+        <v>3796738680.0209384</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>11.30516731172515</v>
+        <v>8.3126230233273155</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>207417823.16475403</v>
+        <v>152513105.2682015</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>3.7493649311334529</v>
+        <v>2.7568859787745978</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>733582930.52690923</v>
+        <v>539399213.62272739</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>5.9182437407520503</v>
+        <v>4.3516498093765072</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>307378532.17203444</v>
+        <v>226013626.59708413</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>3.8547709933146552</v>
+        <v>2.8343904362607759</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1091469546.0383079</v>
+        <v>802551136.79287338</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>8.6177588765607265</v>
+        <v>6.3365874092358281</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>269201338.64432436</v>
+        <v>197942160.76788557</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>1.1708010647492106</v>
+        <v>0.86088313584500775</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>13478332.731891379</v>
+        <v>9910538.7734495439</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>7.7988391806823362E-2</v>
+        <v>5.7344405740311299E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>10395212.098853176</v>
+        <v>7643538.3079802766</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>3.6884053112162654E-2</v>
+        <v>2.712062728835489E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>5163564604.828476</v>
+        <v>3796738680.0209384</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>11.30516731172515</v>
+        <v>8.3126230233273155</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>3976091546.0967884</v>
+        <v>2923596725.0711679</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>5.2281310827040155</v>
+        <v>3.8442140314000115</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1825052476.565217</v>
+        <v>1341950350.4156008</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>7.2825472864363441</v>
+        <v>5.354814181203194</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -7157,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -7173,7 +7173,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7246,7 +7246,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>4230521701.0683994</v>
+        <v>3110677721.3738232</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>0.96792517894343999</v>
+        <v>0.71170969039958831</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>3039278796.5887971</v>
+        <v>2234763821.0211744</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>2.5944519515561799</v>
+        <v>1.9076852584971913</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>25409773.083308801</v>
+        <v>18683656.678903531</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>1.4500388547337624</v>
+        <v>1.0662050402454135</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>5866140.8007001951</v>
+        <v>4313338.8240442611</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>1.5671550392602469</v>
+        <v>1.152319881809005</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>172812589.31569239</v>
+        <v>127068080.37918559</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>1.8085070611338567</v>
+        <v>1.3297846037748946</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>451632943.93810797</v>
+        <v>332083047.01331472</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>2.4954840275489487</v>
+        <v>1.8349147261389331</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>77568291.189598367</v>
+        <v>57035508.227645852</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>1.5328893604754987</v>
+        <v>1.1271245297613961</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>32979933.771359395</v>
+        <v>24249951.302470144</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>1.8534032695561429</v>
+        <v>1.362796521732458</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1354150252.1401834</v>
+        <v>995698714.80895853</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -7618,7 +7618,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.45714791862157267</v>
+        <v>0.33613817545703872</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>12744854.571766464</v>
+        <v>9371216.5968871061</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>2.2096270887501039E-2</v>
+        <v>1.6247258005515471E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>18122620.443969894</v>
+        <v>13325456.208801392</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>1.9212013517560158E-2</v>
+        <v>1.4126480527617762E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>3045144937.3894973</v>
+        <v>2239077159.8452187</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -7753,7 +7753,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>2.5911798551377747</v>
+        <v>1.9052793052483636</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>4506312354.6569986</v>
+        <v>3313464966.6595578</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>0.99380717547166575</v>
+        <v>0.73074057019975425</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>484612877.70946741</v>
+        <v>356332998.31578487</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>2.4380050337616992</v>
+        <v>1.7926507601188966</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -7861,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -56208,8 +56208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E00CB13-1909-41A5-900F-5CA68F8F0590}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56293,7 +56293,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G13" si="0">E2/$E$17</f>
-        <v>38705769075.111778</v>
+        <v>28460124319.935131</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H13" si="1">F2/$F$17</f>
@@ -56305,7 +56305,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>2.0499975743675423</v>
+        <v>1.5073511576231928</v>
       </c>
       <c r="K2" s="37">
         <f t="shared" ref="K2:K13" si="2">H2/B2</f>
@@ -56345,7 +56345,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>67243329698.719475</v>
+        <v>49443624778.4702</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -56357,7 +56357,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>6.5397684208798221</v>
+        <v>4.8086532506469277</v>
       </c>
       <c r="K3" s="38">
         <f t="shared" si="2"/>
@@ -56397,7 +56397,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>11240970969.263926</v>
+        <v>8265419830.3411217</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -56409,7 +56409,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>3.3166173529348724</v>
+        <v>2.4386892300991709</v>
       </c>
       <c r="K4" s="38">
         <f t="shared" si="2"/>
@@ -56449,7 +56449,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>6418739630.2173939</v>
+        <v>4719661492.8069077</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -56461,7 +56461,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="5">G5/B5</f>
-        <v>10.722799885611668</v>
+        <v>7.8844116805968154</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" si="2"/>
@@ -56501,7 +56501,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1913831096.8753233</v>
+        <v>1407228747.7024436</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -56513,7 +56513,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>3.6590413575537881</v>
+        <v>2.6904715864366091</v>
       </c>
       <c r="K6" s="38">
         <f t="shared" si="2"/>
@@ -56553,7 +56553,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>5174440943.7155485</v>
+        <v>3804735988.0261388</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -56565,7 +56565,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>4.8191634906819498</v>
+        <v>3.5435025666779048</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="2"/>
@@ -56605,7 +56605,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1871572937.6934299</v>
+        <v>1376156571.8334043</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -56617,7 +56617,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>3.4631272171440779</v>
+        <v>2.5464170714294689</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" si="2"/>
@@ -56657,7 +56657,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>4011463622.1723924</v>
+        <v>2949605604.5385242</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -56669,7 +56669,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>5.3930801521512377</v>
+        <v>3.9655001118759103</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="2"/>
@@ -56709,7 +56709,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>10172709821.003347</v>
+        <v>7479933691.9142256</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -56721,7 +56721,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>0.6834256609360978</v>
+        <v>0.50251886833536596</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="2"/>
@@ -56761,7 +56761,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>643607339.46104801</v>
+        <v>473240690.78018236</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -56773,7 +56773,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>7.1299101658724523E-2</v>
+        <v>5.2425810043179796E-2</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="2"/>
@@ -56813,7 +56813,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>324913237.14651304</v>
+        <v>238906792.01949489</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -56825,7 +56825,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>2.2662227486494452E-2</v>
+        <v>1.6663402563598863E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="2"/>
@@ -56865,7 +56865,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>73662069328.936859</v>
+        <v>54163286271.277107</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -56877,7 +56877,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>6.7698971535050196</v>
+        <v>4.9778655540478089</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="2"/>
@@ -56917,7 +56917,7 @@
       </c>
       <c r="G14">
         <f t="shared" ref="G14" si="6">E14/$E$17</f>
-        <v>53732144078.94445</v>
+        <v>39508929469.812096</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14" si="7">F14/$F$17</f>
@@ -56929,7 +56929,7 @@
       </c>
       <c r="J14">
         <f t="shared" ref="J14" si="9">G14/B14</f>
-        <v>2.3027755714450886</v>
+        <v>1.693217331944918</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" ref="K14" si="10">H14/B14</f>
@@ -56969,7 +56969,7 @@
       </c>
       <c r="G15">
         <f>E15/$E$17</f>
-        <v>9185904565.8879414</v>
+        <v>6754341592.5646629</v>
       </c>
       <c r="H15">
         <f>F15/$F$17</f>
@@ -56981,7 +56981,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>5.0540354501756877</v>
+        <v>3.716202536893888</v>
       </c>
       <c r="K15" s="38">
         <f>H15/B15</f>
@@ -57003,7 +57003,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -57019,7 +57019,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57095,7 +57095,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>2995224670.0184002</v>
+        <v>2202371080.8958826</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -57107,7 +57107,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>1.7260977514813582</v>
+        <v>1.2691895231480577</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -57140,7 +57140,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>10365056137.476002</v>
+        <v>7621364806.9676476</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -57152,7 +57152,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>8.2782547913784992</v>
+        <v>6.0869520524841905</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -57185,7 +57185,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>889632534.23079991</v>
+        <v>654141569.2873528</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -57197,7 +57197,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>6.4590685084098114</v>
+        <v>4.7493150797130959</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -57230,7 +57230,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1720330650.3408751</v>
+        <v>1264949007.6035848</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -57242,7 +57242,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>15.110945525679691</v>
+        <v>11.11098935711742</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -57275,7 +57275,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>402720904.34874916</v>
+        <v>296118312.02113909</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -57287,7 +57287,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>2.6646140627219626</v>
+        <v>1.95927504611909</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -57320,7 +57320,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>582381932.02050054</v>
+        <v>428222008.83860338</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -57332,7 +57332,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>4.6264995163464366</v>
+        <v>3.4018378796664979</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -57365,7 +57365,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>143552751.54464</v>
+        <v>105553493.78282353</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -57377,7 +57377,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>6.4373043428646035</v>
+        <v>4.7333120168122083</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -57410,7 +57410,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1173962941.2733991</v>
+        <v>863208045.05396998</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -57422,7 +57422,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>4.2369029118446608</v>
+        <v>3.1153697881210745</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -57455,7 +57455,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>5910862019.3802433</v>
+        <v>4346222073.0737076</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -57467,7 +57467,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.81061512225584942</v>
+        <v>0.5960405310704775</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -57500,7 +57500,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>227790877.89493859</v>
+        <v>167493292.56980777</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -57512,7 +57512,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>4.9553272358586607E-2</v>
+        <v>3.6436229675431323E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -57545,7 +57545,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>116934396.42082311</v>
+        <v>85981173.838840529</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -57557,7 +57557,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>3.1498802744942739E-2</v>
+        <v>2.3160884371281429E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -57590,7 +57590,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>12085386787.816875</v>
+        <v>8886313814.5712318</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -57602,7 +57602,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>8.8477419620459745</v>
+        <v>6.5056926191514517</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -57635,7 +57635,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>4431130860.1425896</v>
+        <v>3258184455.9871984</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -57647,7 +57647,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>2.1652995910130666</v>
+        <v>1.5921320522154903</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -57680,7 +57680,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1756344873.2938998</v>
+        <v>1291430053.8925734</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -57692,7 +57692,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>4.3586079463525449</v>
+        <v>3.2048587840827536</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -57707,7 +57707,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -57723,7 +57723,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57797,7 +57797,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>1199587887.313704</v>
+        <v>882049917.14242947</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -57809,7 +57809,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>1.112048628621503</v>
+        <v>0.81768281516286989</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -57842,7 +57842,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>552606199.89054215</v>
+        <v>406328088.15481043</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -57854,7 +57854,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>2.1014150715300421</v>
+        <v>1.5451581408309134</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -57887,7 +57887,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1912280.338972016</v>
+        <v>1406088.4845382471</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -57899,7 +57899,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>2.1054471021052406</v>
+        <v>1.5481228691950297</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -57932,7 +57932,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2331884.8193835746</v>
+        <v>1714621.1907232164</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -57944,7 +57944,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>4.1546839867193537</v>
+        <v>3.0549146961171716</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -57977,7 +57977,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>60170214.155908965</v>
+        <v>44242804.526403651</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -57989,7 +57989,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>2.1181027780961466</v>
+        <v>1.55742851330599</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -58022,7 +58022,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>30240023.320591807</v>
+        <v>22235311.265141036</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -58034,7 +58034,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>1.7518375549634222</v>
+        <v>1.2881158492378104</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -58067,7 +58067,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>9755569.5930429827</v>
+        <v>7173212.9360610172</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -58079,7 +58079,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>1.2939411125410143</v>
+        <v>0.95142728863309878</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -58112,7 +58112,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>8647129.7585273162</v>
+        <v>6358183.6459759679</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -58124,7 +58124,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>2.2306085939965254</v>
+        <v>1.6401533779386217</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -58157,7 +58157,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>248034600.18581769</v>
+        <v>182378382.48957181</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -58169,7 +58169,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.34942826364128304</v>
+        <v>0.256932546795061</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -58202,7 +58202,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>5268907.7231736658</v>
+        <v>3874196.8552747541</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -58214,7 +58214,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>1.8704954507159938E-2</v>
+        <v>1.3753643019970542E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -58247,7 +58247,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>6858216.7964640008</v>
+        <v>5042806.4679882359</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -58259,7 +58259,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>1.915347407112012E-2</v>
+        <v>1.4083436817000089E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -58292,7 +58292,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>554938084.70992565</v>
+        <v>408042709.34553361</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -58304,7 +58304,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>2.1057881278777302</v>
+        <v>1.5483736234395076</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -58337,7 +58337,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>1271425951.401628</v>
+        <v>934872023.08943236</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -58349,7 +58349,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.1397054222468019</v>
+        <v>0.83801869282853081</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -58382,7 +58382,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>38887153.079119124</v>
+        <v>28593494.911117002</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -58394,7 +58394,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>1.8396392699585531</v>
+        <v>1.3526759337930536</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -58412,7 +58412,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -58428,7 +58428,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58501,7 +58501,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>7105577295.3543997</v>
+        <v>5224689187.7605877</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -58513,7 +58513,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>2.8920865745707713</v>
+        <v>2.1265342460079197</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -58546,7 +58546,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>25989356469.042812</v>
+        <v>19109820933.119717</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -58558,7 +58558,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>7.9002875387801081</v>
+        <v>5.8090349549853739</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -58591,7 +58591,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>39395653.4371152</v>
+        <v>28967392.233172942</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -58603,7 +58603,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>3.170741456934258</v>
+        <v>2.3314275418634249</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -58636,7 +58636,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>133906295.51180969</v>
+        <v>98460511.405742422</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -58648,7 +58648,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>6.6097802086838051</v>
+        <v>4.8601325063851508</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -58681,7 +58681,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>18935431.949694119</v>
+        <v>13923111.727716263</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -58693,7 +58693,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>8.7825635834855671</v>
+        <v>6.4577673407982115</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -58726,7 +58726,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>627341118.90048993</v>
+        <v>461280234.48565435</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -58738,7 +58738,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>6.6887694154859423</v>
+        <v>4.9182128055043695</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -58771,7 +58771,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>57076014.091544196</v>
+        <v>41967657.420253091</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -58783,7 +58783,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>4.4151718601817436</v>
+        <v>3.2464498971924591</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -58816,7 +58816,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>168141729.30740836</v>
+        <v>123633624.49074143</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -58828,7 +58828,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>5.1373199651478139</v>
+        <v>3.7774411508439805</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -58861,7 +58861,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>862832761.59352732</v>
+        <v>634435854.11288774</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -58873,7 +58873,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.61948510272918167</v>
+        <v>0.45550375200675125</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -58906,7 +58906,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>186101718.45162216</v>
+        <v>136839498.86148688</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -58918,7 +58918,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>0.17176995341695223</v>
+        <v>0.12630143633599428</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -58951,7 +58951,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>58793193.02857811</v>
+        <v>43230288.991601549</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -58963,7 +58963,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>1.5640597191107077E-2</v>
+        <v>1.1500439111108145E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -58996,7 +58996,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>26123262764.554623</v>
+        <v>19208281444.525459</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -59008,7 +59008,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>7.892388840805812</v>
+        <v>5.8032270888278035</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -59041,7 +59041,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>7220984394.8327522</v>
+        <v>5309547349.1417303</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -59053,7 +59053,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>2.9065171691348595</v>
+        <v>2.1371449773050442</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -59086,7 +59086,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>795482848.20789826</v>
+        <v>584913858.97639573</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -59098,7 +59098,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>6.2874238730776613</v>
+        <v>4.6231057890276919</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -59116,7 +59116,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -59132,7 +59132,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59205,7 +59205,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>4651467298.4519997</v>
+        <v>3420196542.9794121</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -59217,7 +59217,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>3.2313286242962422</v>
+        <v>2.3759769296295903</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -59250,7 +59250,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>2629566032.4821138</v>
+        <v>1933504435.6486132</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -59262,7 +59262,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>5.541504837083842</v>
+        <v>4.0746359096204721</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -59295,7 +59295,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>341105363.578174</v>
+        <v>250812767.33689263</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -59307,7 +59307,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>2.8763234475848845</v>
+        <v>2.1149437114594738</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -59340,7 +59340,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>251417358.73668438</v>
+        <v>184865704.95344439</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -59352,7 +59352,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>6.627752394149768</v>
+        <v>4.8733473486395358</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -59385,7 +59385,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>835175124.00999999</v>
+        <v>614099355.8897059</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -59397,7 +59397,7 @@
       </c>
       <c r="J6">
         <f>G6/B6</f>
-        <v>5.6065847956261639</v>
+        <v>4.1224888203133565</v>
       </c>
       <c r="K6" s="38">
         <f>H6/B6</f>
@@ -59430,7 +59430,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1131961721.9574161</v>
+        <v>832324795.55692363</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -59442,7 +59442,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>5.8589708096228836</v>
+        <v>4.3080667717815331</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -59475,7 +59475,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>374090174.18861997</v>
+        <v>275066304.55045587</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -59487,7 +59487,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>5.1563222275523835</v>
+        <v>3.7914134026120467</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -59520,7 +59520,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>319717072.17448884</v>
+        <v>235086082.48124182</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -59532,7 +59532,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>4.0218920725704868</v>
+        <v>2.9572735827724168</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -59565,7 +59565,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>27499039.710562717</v>
+        <v>20219882.140119642</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -59577,7 +59577,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.65080014065900715</v>
+        <v>0.47852951519044634</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -59610,7 +59610,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>45914655.921101369</v>
+        <v>33760776.412574537</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -59622,7 +59622,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>0.10241069383288649</v>
+        <v>7.5301980759475362E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -59655,7 +59655,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>20077906.340080574</v>
+        <v>14763166.426529836</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -59667,7 +59667,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>2.1958534944656636E-2</v>
+        <v>1.6145981576953412E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -59700,7 +59700,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>2880983391.2187982</v>
+        <v>2118370140.6020575</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -59712,7 +59712,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>5.6219131921762822</v>
+        <v>4.1337597001296187</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -59745,7 +59745,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>6201837960.2287941</v>
+        <v>4560174970.7564659</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -59757,7 +59757,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>3.4849726340927063</v>
+        <v>2.5624798780093427</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -59790,7 +59790,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>1451678794.1319048</v>
+        <v>1067410878.0381653</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -59802,7 +59802,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>5.3234393780422069</v>
+        <v>3.9142936603251521</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -59820,7 +59820,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -59836,7 +59836,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59909,7 +59909,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G15" si="0">E2/$E$17</f>
-        <v>4175253911.2199998</v>
+        <v>3070039640.602941</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H15" si="1">F2/$F$17</f>
@@ -59921,7 +59921,7 @@
       </c>
       <c r="J2">
         <f>G2/B2</f>
-        <v>1.4430939693987468</v>
+        <v>1.0610985069108432</v>
       </c>
       <c r="K2" s="37">
         <f>H2/B2</f>
@@ -59954,7 +59954,7 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>7536344397.4052486</v>
+        <v>5541429703.9744482</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
@@ -59966,7 +59966,7 @@
       </c>
       <c r="J3">
         <f>G3/B3</f>
-        <v>3.6713631174093608</v>
+        <v>2.6995317039774718</v>
       </c>
       <c r="K3" s="38">
         <f>H3/B3</f>
@@ -59999,7 +59999,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>8723307.3899557069</v>
+        <v>6414196.6102615502</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
@@ -60011,7 +60011,7 @@
       </c>
       <c r="J4">
         <f>G4/B4</f>
-        <v>1.5070240096215946</v>
+        <v>1.1081058894276432</v>
       </c>
       <c r="K4" s="38">
         <f>H4/B4</f>
@@ -60044,7 +60044,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2028273.8039839424</v>
+        <v>1491377.7970470164</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
@@ -60056,7 +60056,7 @@
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J15" si="3">G5/B5</f>
-        <v>1.6403865515629965</v>
+        <v>1.2061665820316152</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K15" si="4">H5/B5</f>
@@ -60134,7 +60134,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>48231558.6334356</v>
+        <v>35464381.348114416</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
@@ -60146,7 +60146,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>4.9210412917858068</v>
+        <v>3.6184127145483882</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="4"/>
@@ -60179,7 +60179,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>7195275.4832574353</v>
+        <v>5290643.7376892911</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
@@ -60191,7 +60191,7 @@
       </c>
       <c r="J8">
         <f>G8/B8</f>
-        <v>1.3608163230373738</v>
+        <v>1.0006002375274807</v>
       </c>
       <c r="K8" s="38">
         <f>H8/B8</f>
@@ -60224,7 +60224,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>17813564.882265329</v>
+        <v>13098209.472253919</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
@@ -60236,7 +60236,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>2.9422979580304447</v>
+        <v>2.1634543809047386</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" si="4"/>
@@ -60269,7 +60269,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1064425425.2275913</v>
+        <v>782665753.84381711</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
@@ -60281,7 +60281,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="3"/>
-        <v>0.61101566912972471</v>
+        <v>0.44927622730126815</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="4"/>
@@ -60314,7 +60314,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>88314623.369953588</v>
+        <v>64937223.06614235</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
@@ -60326,7 +60326,7 @@
       </c>
       <c r="J11">
         <f>G11/B11</f>
-        <v>0.11849037970626132</v>
+        <v>8.7125279195780392E-2</v>
       </c>
       <c r="K11" s="38">
         <f>H11/B11</f>
@@ -60359,7 +60359,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>52492336.809303857</v>
+        <v>38597306.477429308</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
@@ -60371,7 +60371,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>2.0021968089935591E-2</v>
+        <v>1.4722035360246759E-2</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="4"/>
@@ -60404,7 +60404,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>7538372671.2092333</v>
+        <v>5542921081.7714949</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
@@ -60416,7 +60416,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="3"/>
-        <v>3.6701405005494352</v>
+        <v>2.6986327209922316</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="4"/>
@@ -60449,7 +60449,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>4191172494.0932131</v>
+        <v>3081744480.950892</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
@@ -60461,7 +60461,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
-        <v>1.4430715939856649</v>
+        <v>1.0610820544012241</v>
       </c>
       <c r="K14" s="38">
         <f t="shared" si="4"/>
@@ -60494,7 +60494,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>66045123.515700929</v>
+        <v>48562590.820368335</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
@@ -60506,7 +60506,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
-        <v>4.1654678495854842</v>
+        <v>3.0628440070481502</v>
       </c>
       <c r="K15" s="38">
         <f t="shared" si="4"/>
@@ -60524,7 +60524,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>298</v>
